--- a/20230208_feedglucoseconc_biotemp.xlsx
+++ b/20230208_feedglucoseconc_biotemp.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
   <si>
     <t>Step</t>
   </si>
@@ -109,24 +121,24 @@
   <dimension ref="A1:D39"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.1328125" customWidth="true"/>
-    <col min="3" max="3" width="11.60546875" customWidth="true"/>
-    <col min="4" max="4" width="11.60546875" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -134,13 +146,13 @@
         <v>-100</v>
       </c>
       <c r="B2" s="0">
-        <v>5.4535323997129126e-05</v>
+        <v>5.4535323997342287e-05</v>
       </c>
       <c r="C2" s="0">
-        <v>21.064509233834883</v>
+        <v>21.064509192003015</v>
       </c>
       <c r="D2" s="0">
-        <v>6.2888292980327947</v>
+        <v>6.2888293204161982</v>
       </c>
     </row>
     <row r="3">
@@ -148,13 +160,13 @@
         <v>-95</v>
       </c>
       <c r="B3" s="0">
-        <v>5.3621893403444391e-05</v>
+        <v>5.3621893403593984e-05</v>
       </c>
       <c r="C3" s="0">
-        <v>20.889312261697512</v>
+        <v>20.889312219981548</v>
       </c>
       <c r="D3" s="0">
-        <v>6.2596534374014254</v>
+        <v>6.2596534599501865</v>
       </c>
     </row>
     <row r="4">
@@ -162,13 +174,13 @@
         <v>-90</v>
       </c>
       <c r="B4" s="0">
-        <v>5.2738397114677265e-05</v>
+        <v>5.2738397114835165e-05</v>
       </c>
       <c r="C4" s="0">
-        <v>20.720144731795699</v>
+        <v>20.72014468961396</v>
       </c>
       <c r="D4" s="0">
-        <v>6.2306414960258962</v>
+        <v>6.2306415190536768</v>
       </c>
     </row>
     <row r="5">
@@ -176,13 +188,13 @@
         <v>-85</v>
       </c>
       <c r="B5" s="0">
-        <v>5.1883367008417402e-05</v>
+        <v>5.1883367008584586e-05</v>
       </c>
       <c r="C5" s="0">
-        <v>20.545346634259488</v>
+        <v>20.545346596300817</v>
       </c>
       <c r="D5" s="0">
-        <v>6.2073677142624888</v>
+        <v>6.2073677357853398</v>
       </c>
     </row>
     <row r="6">
@@ -190,13 +202,13 @@
         <v>-80</v>
       </c>
       <c r="B6" s="0">
-        <v>5.1055424022905524e-05</v>
+        <v>5.1055424022994347e-05</v>
       </c>
       <c r="C6" s="0">
-        <v>20.372069790782177</v>
+        <v>20.37206975344219</v>
       </c>
       <c r="D6" s="0">
-        <v>6.1851747922149798</v>
+        <v>6.1851748137112281</v>
       </c>
     </row>
     <row r="7">
@@ -204,13 +216,13 @@
         <v>-75</v>
       </c>
       <c r="B7" s="0">
-        <v>5.0253269815480432e-05</v>
+        <v>5.0253269815717283e-05</v>
       </c>
       <c r="C7" s="0">
-        <v>20.204352827903506</v>
+        <v>20.204352790548114</v>
       </c>
       <c r="D7" s="0">
-        <v>6.1631414080699187</v>
+        <v>6.1631414298142886</v>
       </c>
     </row>
     <row r="8">
@@ -218,13 +230,13 @@
         <v>-70</v>
       </c>
       <c r="B8" s="0">
-        <v>4.9475678607586407e-05</v>
+        <v>4.9475678607687916e-05</v>
       </c>
       <c r="C8" s="0">
-        <v>20.041923639213167</v>
+        <v>20.041923602565703</v>
       </c>
       <c r="D8" s="0">
-        <v>6.1412785380035189</v>
+        <v>6.1412785596471053</v>
       </c>
     </row>
     <row r="9">
@@ -232,13 +244,13 @@
         <v>-65</v>
       </c>
       <c r="B9" s="0">
-        <v>4.8721488883365699e-05</v>
+        <v>4.8721488883420356e-05</v>
       </c>
       <c r="C9" s="0">
-        <v>19.886262009957704</v>
+        <v>19.886261967960479</v>
       </c>
       <c r="D9" s="0">
-        <v>6.1188693158232468</v>
+        <v>6.1188693398762553</v>
       </c>
     </row>
     <row r="10">
@@ -246,13 +258,13 @@
         <v>-60</v>
       </c>
       <c r="B10" s="0">
-        <v>4.79895944516547e-05</v>
+        <v>4.7989594451713911e-05</v>
       </c>
       <c r="C10" s="0">
-        <v>19.740614035920089</v>
+        <v>19.740613994121475</v>
       </c>
       <c r="D10" s="0">
-        <v>6.0944255425353049</v>
+        <v>6.0944255667126868</v>
       </c>
     </row>
     <row r="11">
@@ -260,13 +272,13 @@
         <v>-55</v>
       </c>
       <c r="B11" s="0">
-        <v>4.7278934069600547e-05</v>
+        <v>4.7278934069729736e-05</v>
       </c>
       <c r="C11" s="0">
-        <v>19.599332563771839</v>
+        <v>19.599332522233112</v>
       </c>
       <c r="D11" s="0">
-        <v>6.070225941750266</v>
+        <v>6.0702259660023401</v>
       </c>
     </row>
     <row r="12">
@@ -274,13 +286,13 @@
         <v>-50</v>
       </c>
       <c r="B12" s="0">
-        <v>4.6588478237197248e-05</v>
+        <v>4.6588478237410416e-05</v>
       </c>
       <c r="C12" s="0">
-        <v>19.462180794722599</v>
+        <v>19.462180753496227</v>
       </c>
       <c r="D12" s="0">
-        <v>6.0463097735744782</v>
+        <v>6.0463097981028682</v>
       </c>
     </row>
     <row r="13">
@@ -288,13 +300,13 @@
         <v>-45</v>
       </c>
       <c r="B13" s="0">
-        <v>4.5917210588520954e-05</v>
+        <v>4.5917210588599904e-05</v>
       </c>
       <c r="C13" s="0">
-        <v>19.328915309430045</v>
+        <v>19.328915267250864</v>
       </c>
       <c r="D13" s="0">
-        <v>6.022734282546196</v>
+        <v>6.0227343076352327</v>
       </c>
     </row>
     <row r="14">
@@ -302,13 +314,13 @@
         <v>-40</v>
       </c>
       <c r="B14" s="0">
-        <v>4.5264098770303465e-05</v>
+        <v>4.5264098770481098e-05</v>
       </c>
       <c r="C14" s="0">
-        <v>19.192584033560365</v>
+        <v>19.192583997712177</v>
       </c>
       <c r="D14" s="0">
-        <v>6.0032524044618754</v>
+        <v>6.003252427074699</v>
       </c>
     </row>
     <row r="15">
@@ -316,13 +328,13 @@
         <v>-35</v>
       </c>
       <c r="B15" s="0">
-        <v>4.4628043918696188e-05</v>
+        <v>4.4628043919000706e-05</v>
       </c>
       <c r="C15" s="0">
-        <v>19.05393081070946</v>
+        <v>19.05393077321034</v>
       </c>
       <c r="D15" s="0">
-        <v>5.9860447952871141</v>
+        <v>5.9860448188711928</v>
       </c>
     </row>
     <row r="16">
@@ -330,13 +342,13 @@
         <v>-30</v>
       </c>
       <c r="B16" s="0">
-        <v>4.4007783359608274e-05</v>
+        <v>4.4007783359726696e-05</v>
       </c>
       <c r="C16" s="0">
-        <v>18.918491185846023</v>
+        <v>18.918491149993599</v>
       </c>
       <c r="D16" s="0">
-        <v>5.9696061068563324</v>
+        <v>5.9696061298345171</v>
       </c>
     </row>
     <row r="17">
@@ -344,13 +356,13 @@
         <v>-25</v>
       </c>
       <c r="B17" s="0">
-        <v>4.3401680629386876e-05</v>
+        <v>4.3401680629244764e-05</v>
       </c>
       <c r="C17" s="0">
-        <v>18.785698797572707</v>
+        <v>18.785698759211925</v>
       </c>
       <c r="D17" s="0">
-        <v>5.954345917682474</v>
+        <v>5.9543459418356974</v>
       </c>
     </row>
     <row r="18">
@@ -361,10 +373,10 @@
         <v>4.2807205140782398e-05</v>
       </c>
       <c r="C18" s="0">
-        <v>18.654587840566336</v>
+        <v>18.654587801673784</v>
       </c>
       <c r="D18" s="0">
-        <v>5.9410842661442018</v>
+        <v>5.9410842908419284</v>
       </c>
     </row>
     <row r="19">
@@ -375,10 +387,10 @@
         <v>4.2219376780868363e-05</v>
       </c>
       <c r="C19" s="0">
-        <v>18.524045625803865</v>
+        <v>18.524045585918032</v>
       </c>
       <c r="D19" s="0">
-        <v>5.931329368865363</v>
+        <v>5.9313293939287632</v>
       </c>
     </row>
     <row r="20">
@@ -386,13 +398,13 @@
         <v>-10</v>
       </c>
       <c r="B20" s="0">
-        <v>4.1624551915830922e-05</v>
+        <v>4.1624551915475649e-05</v>
       </c>
       <c r="C20" s="0">
-        <v>18.391822251719759</v>
+        <v>18.391822209680129</v>
       </c>
       <c r="D20" s="0">
-        <v>5.9292399778345839</v>
+        <v>5.9292400042194799</v>
       </c>
     </row>
     <row r="21">
@@ -400,13 +412,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="0">
-        <v>3.9816572728312848e-05</v>
+        <v>3.981657272866812e-05</v>
       </c>
       <c r="C21" s="0">
-        <v>18.083086548831005</v>
+        <v>18.083086512729068</v>
       </c>
       <c r="D21" s="0">
-        <v>5.7300118681933156</v>
+        <v>5.7300118926838479</v>
       </c>
     </row>
     <row r="22">
@@ -414,13 +426,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="0">
-        <v>3.9287496066009456e-05</v>
+        <v>3.928749606648315e-05</v>
       </c>
       <c r="C22" s="0">
-        <v>17.960775902725459</v>
+        <v>17.960775872842049</v>
       </c>
       <c r="D22" s="0">
-        <v>5.7310946133712832</v>
+        <v>5.7310946355146086</v>
       </c>
     </row>
     <row r="23">
@@ -428,13 +440,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="0">
-        <v>3.8791893281420189e-05</v>
+        <v>3.8791893281597822e-05</v>
       </c>
       <c r="C23" s="0">
-        <v>17.84489553780935</v>
+        <v>17.844895509672085</v>
       </c>
       <c r="D23" s="0">
-        <v>5.7244340596845404</v>
+        <v>5.7244340809955929</v>
       </c>
     </row>
     <row r="24">
@@ -442,13 +454,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="0">
-        <v>3.8316299864504799e-05</v>
+        <v>3.8316299864646911e-05</v>
       </c>
       <c r="C24" s="0">
-        <v>17.7354639565024</v>
+        <v>17.735463922730872</v>
       </c>
       <c r="D24" s="0">
-        <v>5.7140038368970352</v>
+        <v>5.7140038609277042</v>
       </c>
     </row>
     <row r="25">
@@ -456,13 +468,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="0">
-        <v>3.7855967488790535e-05</v>
+        <v>3.7855967489264229e-05</v>
       </c>
       <c r="C25" s="0">
-        <v>17.630481214166139</v>
+        <v>17.630481182416162</v>
       </c>
       <c r="D25" s="0">
-        <v>5.7017223552508653</v>
+        <v>5.7017223784128817</v>
       </c>
     </row>
     <row r="26">
@@ -470,13 +482,13 @@
         <v>35</v>
       </c>
       <c r="B26" s="0">
-        <v>3.7408651152353349e-05</v>
+        <v>3.7408651152759376e-05</v>
       </c>
       <c r="C26" s="0">
-        <v>17.529041126164259</v>
+        <v>17.529041095712046</v>
       </c>
       <c r="D26" s="0">
-        <v>5.6884114590398553</v>
+        <v>5.6884114821426124</v>
       </c>
     </row>
     <row r="27">
@@ -484,13 +496,13 @@
         <v>40</v>
       </c>
       <c r="B27" s="0">
-        <v>3.6973055175515415e-05</v>
+        <v>3.6973055175959504e-05</v>
       </c>
       <c r="C27" s="0">
-        <v>17.430650146277173</v>
+        <v>17.430650114023194</v>
       </c>
       <c r="D27" s="0">
-        <v>5.6744817756717225</v>
+        <v>5.6744817996155916</v>
       </c>
     </row>
     <row r="28">
@@ -498,13 +510,13 @@
         <v>45</v>
       </c>
       <c r="B28" s="0">
-        <v>3.6548314561615474e-05</v>
+        <v>3.6548314561931268e-05</v>
       </c>
       <c r="C28" s="0">
-        <v>17.336003430797518</v>
+        <v>17.336003394632144</v>
       </c>
       <c r="D28" s="0">
-        <v>5.6597063348032179</v>
+        <v>5.6597063606252505</v>
       </c>
     </row>
     <row r="29">
@@ -512,13 +524,13 @@
         <v>50</v>
       </c>
       <c r="B29" s="0">
-        <v>3.6133787007344156e-05</v>
+        <v>3.6133787007557317e-05</v>
       </c>
       <c r="C29" s="0">
-        <v>17.247409556906746</v>
+        <v>17.247409520650336</v>
       </c>
       <c r="D29" s="0">
-        <v>5.6430599251062858</v>
+        <v>5.6430599512019342</v>
       </c>
     </row>
     <row r="30">
@@ -526,13 +538,13 @@
         <v>55</v>
       </c>
       <c r="B30" s="0">
-        <v>3.5728957915960211e-05</v>
+        <v>3.572895791621859e-05</v>
       </c>
       <c r="C30" s="0">
-        <v>17.161100863498035</v>
+        <v>17.161100827218263</v>
       </c>
       <c r="D30" s="0">
-        <v>5.6262535443293871</v>
+        <v>5.6262535705936898</v>
       </c>
     </row>
     <row r="31">
@@ -540,13 +552,13 @@
         <v>60</v>
       </c>
       <c r="B31" s="0">
-        <v>3.5333392527607073e-05</v>
+        <v>3.5333392527784706e-05</v>
       </c>
       <c r="C31" s="0">
-        <v>17.076951518992246</v>
+        <v>17.076951483642176</v>
       </c>
       <c r="D31" s="0">
-        <v>5.6093445753442666</v>
+        <v>5.6093446013121593</v>
       </c>
     </row>
     <row r="32">
@@ -554,13 +566,13 @@
         <v>65</v>
       </c>
       <c r="B32" s="0">
-        <v>3.4946709819977814e-05</v>
+        <v>3.4946709820087128e-05</v>
       </c>
       <c r="C32" s="0">
-        <v>16.994856408788081</v>
+        <v>16.994856372338432</v>
       </c>
       <c r="D32" s="0">
-        <v>5.592372552737146</v>
+        <v>5.5923725794342261</v>
       </c>
     </row>
     <row r="33">
@@ -568,13 +580,13 @@
         <v>70</v>
       </c>
       <c r="B33" s="0">
-        <v>3.45685673189219e-05</v>
+        <v>3.4568567319074156e-05</v>
       </c>
       <c r="C33" s="0">
-        <v>16.91472463030405</v>
+        <v>16.914724593822797</v>
       </c>
       <c r="D33" s="0">
-        <v>5.5753655435868552</v>
+        <v>5.5753655704610594</v>
       </c>
     </row>
     <row r="34">
@@ -582,13 +594,13 @@
         <v>75</v>
       </c>
       <c r="B34" s="0">
-        <v>3.4198651746066845e-05</v>
+        <v>3.419865174620895e-05</v>
       </c>
       <c r="C34" s="0">
-        <v>16.836475545553611</v>
+        <v>16.836475509829228</v>
       </c>
       <c r="D34" s="0">
-        <v>5.558343971495475</v>
+        <v>5.558343998234335</v>
       </c>
     </row>
     <row r="35">
@@ -596,13 +608,13 @@
         <v>80</v>
       </c>
       <c r="B35" s="0">
-        <v>3.3836672965525949e-05</v>
+        <v>3.3836672965703582e-05</v>
       </c>
       <c r="C35" s="0">
-        <v>16.757239440000234</v>
+        <v>16.757239409439592</v>
       </c>
       <c r="D35" s="0">
-        <v>5.5435320823841892</v>
+        <v>5.5435321068644612</v>
       </c>
     </row>
     <row r="36">
@@ -610,13 +622,13 @@
         <v>85</v>
       </c>
       <c r="B36" s="0">
-        <v>3.3482359887253044e-05</v>
+        <v>3.348235988750382e-05</v>
       </c>
       <c r="C36" s="0">
-        <v>16.674033442095265</v>
+        <v>16.674033411345818</v>
       </c>
       <c r="D36" s="0">
-        <v>5.5304733298389692</v>
+        <v>5.5304733545766567</v>
       </c>
     </row>
     <row r="37">
@@ -624,13 +636,13 @@
         <v>90</v>
       </c>
       <c r="B37" s="0">
-        <v>3.3135457577020904e-05</v>
+        <v>3.3135457577218277e-05</v>
       </c>
       <c r="C37" s="0">
-        <v>16.592650048645936</v>
+        <v>16.592650018297689</v>
       </c>
       <c r="D37" s="0">
-        <v>5.5174214283692606</v>
+        <v>5.5174214530505026</v>
       </c>
     </row>
     <row r="38">
@@ -638,13 +650,13 @@
         <v>95</v>
       </c>
       <c r="B38" s="0">
-        <v>3.2795725138986367e-05</v>
+        <v>3.2795725139210749e-05</v>
       </c>
       <c r="C38" s="0">
-        <v>16.513027222411637</v>
+        <v>16.513027191857645</v>
       </c>
       <c r="D38" s="0">
-        <v>5.5043833879348369</v>
+        <v>5.5043834128330218</v>
       </c>
     </row>
     <row r="39">
@@ -652,13 +664,13 @@
         <v>100</v>
       </c>
       <c r="B39" s="0">
-        <v>3.2462934111094907e-05</v>
+        <v>3.2462934111272547e-05</v>
       </c>
       <c r="C39" s="0">
-        <v>16.435106618855997</v>
+        <v>16.435106588077105</v>
       </c>
       <c r="D39" s="0">
-        <v>5.4913647310817453</v>
+        <v>5.4913647562283074</v>
       </c>
     </row>
   </sheetData>

--- a/20230208_feedglucoseconc_biotemp.xlsx
+++ b/20230208_feedglucoseconc_biotemp.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
   <si>
     <t>Step</t>
   </si>
@@ -118,559 +142,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-100</v>
+        <v>-20</v>
       </c>
       <c r="B2" s="0">
-        <v>5.4535323997342287e-05</v>
+        <v>0.00072758685656229007</v>
       </c>
       <c r="C2" s="0">
-        <v>21.064509192003015</v>
+        <v>21.758329440816624</v>
       </c>
       <c r="D2" s="0">
-        <v>6.2888293204161982</v>
+        <v>6.4111770646887862</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-95</v>
+        <v>-19</v>
       </c>
       <c r="B3" s="0">
-        <v>5.3621893403593984e-05</v>
+        <v>0.00070776471816607885</v>
       </c>
       <c r="C3" s="0">
-        <v>20.889312219981548</v>
+        <v>21.492740409052487</v>
       </c>
       <c r="D3" s="0">
-        <v>6.2596534599501865</v>
+        <v>6.3779751443847204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-90</v>
+        <v>-18</v>
       </c>
       <c r="B4" s="0">
-        <v>5.2738397114835165e-05</v>
+        <v>0.0006884429022557567</v>
       </c>
       <c r="C4" s="0">
-        <v>20.72014468961396</v>
+        <v>21.239187160747633</v>
       </c>
       <c r="D4" s="0">
-        <v>6.2306415190536768</v>
+        <v>6.3449846066876603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-85</v>
+        <v>-17</v>
       </c>
       <c r="B5" s="0">
-        <v>5.1883367008584586e-05</v>
+        <v>0.00068904344017539643</v>
       </c>
       <c r="C5" s="0">
-        <v>20.545346596300817</v>
+        <v>21.082324136815259</v>
       </c>
       <c r="D5" s="0">
-        <v>6.2073677357853398</v>
+        <v>6.3206917054067731</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-80</v>
+        <v>-16</v>
       </c>
       <c r="B6" s="0">
-        <v>5.1055424022994347e-05</v>
+        <v>0.00067077748398736148</v>
       </c>
       <c r="C6" s="0">
-        <v>20.37206975344219</v>
+        <v>20.857535303845339</v>
       </c>
       <c r="D6" s="0">
-        <v>6.1851748137112281</v>
+        <v>6.2836756422904045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-75</v>
+        <v>-15</v>
       </c>
       <c r="B7" s="0">
-        <v>5.0253269815717283e-05</v>
+        <v>0.00065280085826605234</v>
       </c>
       <c r="C7" s="0">
-        <v>20.204352790548114</v>
+        <v>20.642509538565321</v>
       </c>
       <c r="D7" s="0">
-        <v>6.1631414298142886</v>
+        <v>6.2468946491061388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-70</v>
+        <v>-14</v>
       </c>
       <c r="B8" s="0">
-        <v>4.9475678607687916e-05</v>
+        <v>0.00063499770761816469</v>
       </c>
       <c r="C8" s="0">
-        <v>20.041923602565703</v>
+        <v>20.430802400712423</v>
       </c>
       <c r="D8" s="0">
-        <v>6.1412785596471053</v>
+        <v>6.2136310522475924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-65</v>
+        <v>-13</v>
       </c>
       <c r="B9" s="0">
-        <v>4.8721488883420356e-05</v>
+        <v>0.00063913755304849493</v>
       </c>
       <c r="C9" s="0">
-        <v>19.886261967960479</v>
+        <v>20.285561175544899</v>
       </c>
       <c r="D9" s="0">
-        <v>6.1188693398762553</v>
+        <v>6.1948314109488365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-60</v>
+        <v>-12</v>
       </c>
       <c r="B10" s="0">
-        <v>4.7989594451713911e-05</v>
+        <v>0.00062214225958504932</v>
       </c>
       <c r="C10" s="0">
-        <v>19.740613994121475</v>
+        <v>20.075031596334384</v>
       </c>
       <c r="D10" s="0">
-        <v>6.0944255667126868</v>
+        <v>6.1668163144565824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-55</v>
+        <v>-11</v>
       </c>
       <c r="B11" s="0">
-        <v>4.7278934069729736e-05</v>
+        <v>0.00060502563748149839</v>
       </c>
       <c r="C11" s="0">
-        <v>19.599332522233112</v>
+        <v>19.872831168829691</v>
       </c>
       <c r="D11" s="0">
-        <v>6.0702259660023401</v>
+        <v>6.1390366507944805</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-50</v>
+        <v>-10</v>
       </c>
       <c r="B12" s="0">
-        <v>4.6588478237410416e-05</v>
+        <v>0.00058756589669712862</v>
       </c>
       <c r="C12" s="0">
-        <v>19.462180753496227</v>
+        <v>19.682297570922799</v>
       </c>
       <c r="D12" s="0">
-        <v>6.0463097981028682</v>
+        <v>6.1098828382395709</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-45</v>
+        <v>-9</v>
       </c>
       <c r="B13" s="0">
-        <v>4.5917210588599904e-05</v>
+        <v>0.00059690772227898807</v>
       </c>
       <c r="C13" s="0">
-        <v>19.328915267250864</v>
+        <v>19.562612289792014</v>
       </c>
       <c r="D13" s="0">
-        <v>6.0227343076352327</v>
+        <v>6.0892007106869528</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-40</v>
+        <v>-8</v>
       </c>
       <c r="B14" s="0">
-        <v>4.5264098770481098e-05</v>
+        <v>0.00058001629767190366</v>
       </c>
       <c r="C14" s="0">
-        <v>19.192583997712177</v>
+        <v>19.388693644809905</v>
       </c>
       <c r="D14" s="0">
-        <v>6.003252427074699</v>
+        <v>6.0584721596800932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="B15" s="0">
-        <v>4.4628043919000706e-05</v>
+        <v>0.00056208388193569798</v>
       </c>
       <c r="C15" s="0">
-        <v>19.05393077321034</v>
+        <v>19.221097494118396</v>
       </c>
       <c r="D15" s="0">
-        <v>5.9860448188711928</v>
+        <v>6.0281728010799043</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-30</v>
+        <v>-6</v>
       </c>
       <c r="B16" s="0">
-        <v>4.4007783359726696e-05</v>
+        <v>0.00054235530599022752</v>
       </c>
       <c r="C16" s="0">
-        <v>18.918491149993599</v>
+        <v>19.053446299454038</v>
       </c>
       <c r="D16" s="0">
-        <v>5.9696061298345171</v>
+        <v>6.0017887367211529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="B17" s="0">
-        <v>4.3401680629244764e-05</v>
+        <v>0.00056275636091456254</v>
       </c>
       <c r="C17" s="0">
-        <v>18.785698759211925</v>
+        <v>18.938204327530002</v>
       </c>
       <c r="D17" s="0">
-        <v>5.9543459418356974</v>
+        <v>5.9869538470769044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="B18" s="0">
-        <v>4.2807205140782398e-05</v>
+        <v>0.00054306804584758339</v>
       </c>
       <c r="C18" s="0">
-        <v>18.654587801673784</v>
+        <v>18.76950772064356</v>
       </c>
       <c r="D18" s="0">
-        <v>5.9410842908419284</v>
+        <v>5.9657325318789276</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="B19" s="0">
-        <v>4.2219376780868363e-05</v>
+        <v>0.00051751704637226226</v>
       </c>
       <c r="C19" s="0">
-        <v>18.524045585918032</v>
+        <v>18.604438851680925</v>
       </c>
       <c r="D19" s="0">
-        <v>5.9313293939287632</v>
+        <v>5.9468518273294535</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="B20" s="0">
-        <v>4.1624551915475649e-05</v>
+        <v>0.00047676524591189207</v>
       </c>
       <c r="C20" s="0">
-        <v>18.391822209680129</v>
+        <v>18.438756632882047</v>
       </c>
       <c r="D20" s="0">
-        <v>5.9292400042194799</v>
+        <v>5.9342876698860607</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B21" s="0">
-        <v>3.981657272866812e-05</v>
+        <v>0.00056517858579141489</v>
       </c>
       <c r="C21" s="0">
-        <v>18.083086512729068</v>
+        <v>18.322042572887653</v>
       </c>
       <c r="D21" s="0">
-        <v>5.7300118926838479</v>
+        <v>5.9371249287741534</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>3.928749606648315e-05</v>
+        <v>0.00055018610414236946</v>
       </c>
       <c r="C22" s="0">
-        <v>17.960775872842049</v>
+        <v>18.149050583782866</v>
       </c>
       <c r="D22" s="0">
-        <v>5.7310946355146086</v>
+        <v>5.7828463005937465</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>3.8791893281597822e-05</v>
+        <v>0.00054076313043793789</v>
       </c>
       <c r="C23" s="0">
-        <v>17.844895509672085</v>
+        <v>17.994148824095788</v>
       </c>
       <c r="D23" s="0">
-        <v>5.7244340809955929</v>
+        <v>5.7815880109044713</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0">
-        <v>3.8316299864646911e-05</v>
+        <v>0.0004755175274446799</v>
       </c>
       <c r="C24" s="0">
-        <v>17.735463922730872</v>
+        <v>17.903696279760254</v>
       </c>
       <c r="D24" s="0">
-        <v>5.7140038609277042</v>
+        <v>5.770314693304158</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B25" s="0">
-        <v>3.7855967489264229e-05</v>
+        <v>0.00048271366227758961</v>
       </c>
       <c r="C25" s="0">
-        <v>17.630481182416162</v>
+        <v>17.769135504292223</v>
       </c>
       <c r="D25" s="0">
-        <v>5.7017223784128817</v>
+        <v>5.7530075233993614</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0">
-        <v>3.7408651152759376e-05</v>
+        <v>0.00048398209248006195</v>
       </c>
       <c r="C26" s="0">
-        <v>17.529041095712046</v>
+        <v>17.634832261657039</v>
       </c>
       <c r="D26" s="0">
-        <v>5.6884114821426124</v>
+        <v>5.7355203290417194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B27" s="0">
-        <v>3.6973055175959504e-05</v>
+        <v>0.00048239991079294481</v>
       </c>
       <c r="C27" s="0">
-        <v>17.430650114023194</v>
+        <v>17.505614136055385</v>
       </c>
       <c r="D27" s="0">
-        <v>5.6744817996155916</v>
+        <v>5.7170972610012427</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0">
-        <v>3.6548314561931268e-05</v>
+        <v>0.00045756432396260038</v>
       </c>
       <c r="C28" s="0">
-        <v>17.336003394632144</v>
+        <v>17.421963528142641</v>
       </c>
       <c r="D28" s="0">
-        <v>5.6597063606252505</v>
+        <v>5.7045385248891023</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B29" s="0">
-        <v>3.6133787007557317e-05</v>
+        <v>0.00045682057866924808</v>
       </c>
       <c r="C29" s="0">
-        <v>17.247409520650336</v>
+        <v>17.29992302126098</v>
       </c>
       <c r="D29" s="0">
-        <v>5.6430599512019342</v>
+        <v>5.6854673801251181</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B30" s="0">
-        <v>3.572895791621859e-05</v>
+        <v>0.00045480418112002025</v>
       </c>
       <c r="C30" s="0">
-        <v>17.161100827218263</v>
+        <v>17.182913564337809</v>
       </c>
       <c r="D30" s="0">
-        <v>5.6262535705936898</v>
+        <v>5.6657024968546352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0">
-        <v>3.5333392527784706e-05</v>
+        <v>0.00045195164784885835</v>
       </c>
       <c r="C31" s="0">
-        <v>17.076951483642176</v>
+        <v>17.074046257335539</v>
       </c>
       <c r="D31" s="0">
-        <v>5.6093446013121593</v>
+        <v>5.6437688895544795</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B32" s="0">
-        <v>3.4946709820087128e-05</v>
+        <v>0.0004360975598277538</v>
       </c>
       <c r="C32" s="0">
-        <v>16.994856372338432</v>
+        <v>17.003312611654366</v>
       </c>
       <c r="D32" s="0">
-        <v>5.5923725794342261</v>
+        <v>5.6291369649944443</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B33" s="0">
-        <v>3.4568567319074156e-05</v>
+        <v>0.00043365246638564042</v>
       </c>
       <c r="C33" s="0">
-        <v>16.914724593822797</v>
+        <v>16.899855243275567</v>
       </c>
       <c r="D33" s="0">
-        <v>5.5753655704610594</v>
+        <v>5.6072000563257234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B34" s="0">
-        <v>3.419865174620895e-05</v>
+        <v>0.0004307314034307935</v>
       </c>
       <c r="C34" s="0">
-        <v>16.836475509829228</v>
+        <v>16.799436453485441</v>
       </c>
       <c r="D34" s="0">
-        <v>5.558343998234335</v>
+        <v>5.5852970477152439</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B35" s="0">
-        <v>3.3836672965703582e-05</v>
+        <v>0.00042746819173140286</v>
       </c>
       <c r="C35" s="0">
-        <v>16.757239409439592</v>
+        <v>16.701919464558159</v>
       </c>
       <c r="D35" s="0">
-        <v>5.5435321068644612</v>
+        <v>5.563444351743783</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0">
-        <v>3.348235988750382e-05</v>
+        <v>0.00041570365786824937</v>
       </c>
       <c r="C36" s="0">
-        <v>16.674033411345818</v>
+        <v>16.637485051214014</v>
       </c>
       <c r="D36" s="0">
-        <v>5.5304733545766567</v>
+        <v>5.5502820142456244</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B37" s="0">
-        <v>3.3135457577218277e-05</v>
+        <v>0.00041273799479690787</v>
       </c>
       <c r="C37" s="0">
-        <v>16.592650018297689</v>
+        <v>16.533862481889145</v>
       </c>
       <c r="D37" s="0">
-        <v>5.5174214530505026</v>
+        <v>5.5335220857224101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B38" s="0">
-        <v>3.2795725139210749e-05</v>
+        <v>0.0004095591775918241</v>
       </c>
       <c r="C38" s="0">
-        <v>16.513027191857645</v>
+        <v>16.433047902274382</v>
       </c>
       <c r="D38" s="0">
-        <v>5.5043834128330218</v>
+        <v>5.516814593642323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B39" s="0">
-        <v>3.2462934111272547e-05</v>
+        <v>0.00040622309054801536</v>
       </c>
       <c r="C39" s="0">
-        <v>16.435106588077105</v>
+        <v>16.334929131426861</v>
       </c>
       <c r="D39" s="0">
-        <v>5.4913647562283074</v>
+        <v>5.5001644730662633</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>19</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.0003968468362497833</v>
+      </c>
+      <c r="C40" s="0">
+        <v>16.270961924166983</v>
+      </c>
+      <c r="D40" s="0">
+        <v>5.4890981005282526</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>20</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.00039375250235753614</v>
+      </c>
+      <c r="C41" s="0">
+        <v>16.17710463331241</v>
+      </c>
+      <c r="D41" s="0">
+        <v>5.4725511846978634</v>
       </c>
     </row>
   </sheetData>
